--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail13 Features.xlsx
@@ -3533,7 +3533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3544,29 +3544,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3587,115 +3585,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3712,72 +3700,66 @@
         <v>1.095470297300258e-06</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.7423975720892447</v>
+        <v>3.964326560820501e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.7984687951047196</v>
+        <v>1.451741944649011e-05</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.964326560820501e-06</v>
+        <v>0.005174974270809303</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.451741944649011e-05</v>
+        <v>0.3000866716843405</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.005174974270809303</v>
+        <v>0.09001744329107672</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3000866716843405</v>
+        <v>1.677983492487663</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.09001744329107672</v>
+        <v>1.535933799745845</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.593619772865871</v>
+        <v>3.260152121987054</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.535933799745845</v>
+        <v>1.066378034785743e-13</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.260152121987054</v>
+        <v>8062999.824098729</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.066378034785743e-13</v>
+        <v>1.397268794899835e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>8062999.824098729</v>
+        <v>6.932733271490088</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.397268794899835e-05</v>
+        <v>0.0001329876690828331</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6.932733271490088</v>
+        <v>8.519473506309481</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001329876690828331</v>
+        <v>1.314730697190364</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.519473506309481</v>
+        <v>0.009652435038099625</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.314730697190364</v>
+        <v>2.910787742474456</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.009652435038099625</v>
+        <v>0.9504192290831676</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.910787742474456</v>
+        <v>1.805169558470805</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9504192290831676</v>
+        <v>46</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.805169558470805</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1992257272571145</v>
       </c>
     </row>
@@ -3792,72 +3774,66 @@
         <v>1.098555559571914e-06</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.7387265104327033</v>
+        <v>3.706216089086452e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.8051366127828237</v>
+        <v>1.451375447812803e-05</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.706216089086452e-06</v>
+        <v>-0.01142161945489093</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.451375447812803e-05</v>
+        <v>0.2743903826113137</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.01142161945489093</v>
+        <v>0.07537038635450943</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2743903826113137</v>
+        <v>1.678009951011164</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07537038635450943</v>
+        <v>1.521173601215557</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.592174023425611</v>
+        <v>3.430590114679119</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.521173601215557</v>
+        <v>9.630509356855576e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.430590114679119</v>
+        <v>8897845.256297329</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.630509356855576e-14</v>
+        <v>1.268477576332592e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>8897845.256297329</v>
+        <v>7.624633180970731</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.268477576332592e-05</v>
+        <v>0.0001315132750876616</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>7.624633180970731</v>
+        <v>8.00136670556814</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001315132750876616</v>
+        <v>1.406357793393619</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.00136670556814</v>
+        <v>0.008419725690067447</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.406357793393619</v>
+        <v>2.967512645885321</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008419725690067447</v>
+        <v>0.9516591140126354</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.967512645885321</v>
+        <v>1.816582970356458</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9516591140126354</v>
+        <v>46</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.816582970356458</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2077462908391651</v>
       </c>
     </row>
@@ -3872,72 +3848,66 @@
         <v>1.110802380459786e-06</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.7435964248469452</v>
+        <v>3.767920403038029e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.814074867161779</v>
+        <v>1.449281036531335e-05</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.767920403038029e-06</v>
+        <v>-0.02613311409209373</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.449281036531335e-05</v>
+        <v>0.2480223295705125</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.02613311409209373</v>
+        <v>0.0621539867170786</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2480223295705125</v>
+        <v>1.67802747255675</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0621539867170786</v>
+        <v>1.516466688148833</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.592674388586967</v>
+        <v>3.680338704374483</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.516466688148833</v>
+        <v>8.367800997944692e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.680338704374483</v>
+        <v>10284766.78760158</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>8.367800997944692e-14</v>
+        <v>1.097129803762526e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>10284766.78760158</v>
+        <v>8.851160987343992</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.097129803762526e-05</v>
+        <v>0.0001352308787621533</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>8.851160987343992</v>
+        <v>7.881548748613707</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001352308787621533</v>
+        <v>1.558317668314372</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.881548748613707</v>
+        <v>0.008400381355480015</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.558317668314372</v>
+        <v>3.018338989565334</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008400381355480015</v>
+        <v>0.9509805449191896</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.018338989565334</v>
+        <v>1.832584948691303</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9509805449191896</v>
+        <v>46</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.832584948691303</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2101895404455075</v>
       </c>
     </row>
@@ -3952,72 +3922,66 @@
         <v>1.11737709382117e-06</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.7907228040878678</v>
+        <v>3.808936444977016e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.7418587414160216</v>
+        <v>1.445569066879504e-05</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.808936444977016e-06</v>
+        <v>-0.04031651756632891</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.445569066879504e-05</v>
+        <v>0.2203565470380689</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04031651756632891</v>
+        <v>0.05013828083118095</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2203565470380689</v>
+        <v>1.672145163608445</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05013828083118095</v>
+        <v>1.507431548819486</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.587752263518791</v>
+        <v>4.036032984229921</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.507431548819486</v>
+        <v>6.957889183761369e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.036032984229921</v>
+        <v>12277247.45050132</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.957889183761369e-14</v>
+        <v>9.160202442613377e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>12277247.45050132</v>
+        <v>10.48768237496681</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>9.160202442613377e-06</v>
+        <v>0.0001440572727817974</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>10.48768237496681</v>
+        <v>8.771259181645847</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001440572727817974</v>
+        <v>1.374628012647003</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.771259181645847</v>
+        <v>0.01108304449971056</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.374628012647003</v>
+        <v>2.89408308209872</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01108304449971056</v>
+        <v>0.9497306040202229</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.89408308209872</v>
+        <v>1.812813465530009</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9497306040202229</v>
+        <v>46</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.812813465530009</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.206278403241475</v>
       </c>
     </row>
@@ -4394,7 +4358,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.553955121364745</v>
+        <v>1.469482934067345</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.901565424805218</v>
@@ -4483,7 +4447,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.563268252572749</v>
+        <v>1.474245198454279</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.857181058114587</v>
@@ -4572,7 +4536,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.569373431252268</v>
+        <v>1.471165044943735</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.561684789847673</v>
@@ -4661,7 +4625,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.586959757381232</v>
+        <v>1.471465788806795</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.866627847171618</v>
@@ -4750,7 +4714,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.590586375598213</v>
+        <v>1.472927752875392</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.087882101116493</v>
@@ -4839,7 +4803,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.610360196501321</v>
+        <v>1.490393852341345</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.644227696487947</v>
@@ -4928,7 +4892,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.616773549062772</v>
+        <v>1.485813392852017</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.090812545974944</v>
@@ -5017,7 +4981,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.611939709282509</v>
+        <v>1.473244219027254</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.946914771421796</v>
@@ -5106,7 +5070,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.628991898623277</v>
+        <v>1.484956433950648</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.188321594084167</v>
@@ -5195,7 +5159,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.626058388790633</v>
+        <v>1.485607353137412</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.228795190484084</v>
@@ -5284,7 +5248,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.627605869472826</v>
+        <v>1.485398926925753</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.088267881087144</v>
@@ -5373,7 +5337,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.62826672893165</v>
+        <v>1.485742092819751</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.865213052044599</v>
@@ -5462,7 +5426,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.544727663105248</v>
+        <v>1.435411630301935</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.919610137098979</v>
@@ -5551,7 +5515,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.544020938820038</v>
+        <v>1.437975117440802</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.920841393740638</v>
@@ -5640,7 +5604,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.540332490691794</v>
+        <v>1.432715639619716</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.928211241882887</v>
@@ -5729,7 +5693,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.553517556749631</v>
+        <v>1.445039428961689</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.947817943620672</v>
@@ -5818,7 +5782,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.555279948271273</v>
+        <v>1.446475816511498</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.926230145674472</v>
@@ -5907,7 +5871,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.552528298149265</v>
+        <v>1.449567888914443</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.914130472351361</v>
@@ -5996,7 +5960,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.544595653216627</v>
+        <v>1.454938735917085</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.932727550623962</v>
@@ -6085,7 +6049,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.541071717742399</v>
+        <v>1.451638637559924</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.912233688287279</v>
@@ -6174,7 +6138,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.536283517032201</v>
+        <v>1.451317854802128</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.903071532726243</v>
@@ -6263,7 +6227,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.534614202902776</v>
+        <v>1.458592855595138</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.897689829669949</v>
@@ -6352,7 +6316,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.530341017368539</v>
+        <v>1.458741029966813</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.905704203915172</v>
@@ -6441,7 +6405,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.523709330621026</v>
+        <v>1.457818813928035</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.906636951708487</v>
@@ -6530,7 +6494,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.516446372291734</v>
+        <v>1.448088783520454</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.915698820736634</v>
@@ -6619,7 +6583,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.508492658742277</v>
+        <v>1.447462208174681</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.933261796131395</v>
@@ -6708,7 +6672,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.528152769423926</v>
+        <v>1.458810322281501</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.910097833804039</v>
@@ -6797,7 +6761,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.60654698847204</v>
+        <v>1.518453444219483</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.535101623230813</v>
@@ -6886,7 +6850,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.594697544844879</v>
+        <v>1.510707836848702</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.694711939491407</v>
@@ -6975,7 +6939,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.601960514855548</v>
+        <v>1.528055235056384</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.677888498457138</v>
@@ -7064,7 +7028,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.600970213633607</v>
+        <v>1.528752903775886</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.755008053662563</v>
@@ -7153,7 +7117,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.603281439164142</v>
+        <v>1.529814703983749</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.514027531317205</v>
@@ -7242,7 +7206,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.607335299714966</v>
+        <v>1.530100831827002</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.69882682693459</v>
@@ -7331,7 +7295,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.598531066937654</v>
+        <v>1.522860498057739</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.60236751216729</v>
@@ -7420,7 +7384,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.61854058303837</v>
+        <v>1.534343476694157</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.962893604808491</v>
@@ -7509,7 +7473,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.624749662581504</v>
+        <v>1.539703390966174</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.865057683711894</v>
@@ -7598,7 +7562,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.628459584229038</v>
+        <v>1.541779121066676</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.769742509914154</v>
@@ -7687,7 +7651,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.631757685834142</v>
+        <v>1.556386000327505</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.880593250338396</v>
@@ -7776,7 +7740,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.633727850589556</v>
+        <v>1.554643819869049</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.91677269845816</v>
@@ -7865,7 +7829,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.658199252444313</v>
+        <v>1.569985238368656</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.178922947696428</v>
@@ -7954,7 +7918,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.658900386433905</v>
+        <v>1.564809206750137</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.063000008068621</v>
@@ -8043,7 +8007,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.66867035151192</v>
+        <v>1.574381737725703</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.154410982747689</v>
@@ -8132,7 +8096,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.656206221226213</v>
+        <v>1.569247376455055</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.143581430120217</v>
@@ -8221,7 +8185,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.669153611528987</v>
+        <v>1.55679270951621</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.055180989581331</v>
@@ -8310,7 +8274,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.662278347100548</v>
+        <v>1.544015889890538</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.052936269505892</v>
@@ -8399,7 +8363,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.66024890097381</v>
+        <v>1.539110246769321</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.294758032016778</v>
@@ -8488,7 +8452,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.654319665135787</v>
+        <v>1.534303648089979</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.475801638619219</v>
@@ -8577,7 +8541,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.657634950284947</v>
+        <v>1.535174658460406</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.87107105030458</v>
@@ -8666,7 +8630,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.662237678742073</v>
+        <v>1.534451977534482</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.070998240336658</v>
@@ -8952,7 +8916,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.573746387932034</v>
+        <v>1.536212407458791</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.791359663517833</v>
@@ -9041,7 +9005,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.569646076850939</v>
+        <v>1.530883123260902</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.754349485736932</v>
@@ -9130,7 +9094,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.582240658425435</v>
+        <v>1.540267380179486</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.741993094765486</v>
@@ -9219,7 +9183,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.575796457465133</v>
+        <v>1.5259868411088</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.502059473132175</v>
@@ -9308,7 +9272,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.576073685091329</v>
+        <v>1.51935464952999</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.710400485365034</v>
@@ -9397,7 +9361,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.576265860079745</v>
+        <v>1.506722069769801</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.69534336696881</v>
@@ -9486,7 +9450,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.630539721317533</v>
+        <v>1.534758059371344</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.515482956722123</v>
@@ -9575,7 +9539,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.679985477207955</v>
+        <v>1.559575991551049</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.222803221498338</v>
@@ -9664,7 +9628,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.736763769472105</v>
+        <v>1.588325487843764</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.005377570297067</v>
@@ -9753,7 +9717,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.73682570758047</v>
+        <v>1.584481588855283</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.638031176091028</v>
@@ -9842,7 +9806,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.742923776010531</v>
+        <v>1.591406120896048</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.945632765041285</v>
@@ -9931,7 +9895,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.745680165407488</v>
+        <v>1.587906907669748</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.376093376564053</v>
@@ -10020,7 +9984,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.724784013476567</v>
+        <v>1.582321180653979</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.067481369074792</v>
@@ -10109,7 +10073,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.732013393584569</v>
+        <v>1.592128031734779</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.138849337194667</v>
@@ -10198,7 +10162,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.725803431410657</v>
+        <v>1.598683957006488</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.397071332938097</v>
@@ -10287,7 +10251,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.738848722783365</v>
+        <v>1.602012375872709</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.977739495063724</v>
@@ -10376,7 +10340,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.744094703846319</v>
+        <v>1.609261790830615</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.45309850271071</v>
@@ -10465,7 +10429,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.744916941412956</v>
+        <v>1.60704429369647</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.328231084625432</v>
@@ -10554,7 +10518,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.747133619720646</v>
+        <v>1.614623096872341</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.344793100563427</v>
@@ -10643,7 +10607,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.742983252945541</v>
+        <v>1.615632095726172</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.536805510946776</v>
@@ -10732,7 +10696,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.752017607204874</v>
+        <v>1.631705396229146</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.477459430561487</v>
@@ -10821,7 +10785,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.749761106504298</v>
+        <v>1.639753127982247</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.3440243802467</v>
@@ -10910,7 +10874,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.745370579722394</v>
+        <v>1.6472967648649</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.335534813236138</v>
@@ -10999,7 +10963,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.747441780815588</v>
+        <v>1.653922303968612</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.144118078961855</v>
@@ -11088,7 +11052,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.757563842297103</v>
+        <v>1.667112364140068</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.538092547200803</v>
@@ -11177,7 +11141,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.75035005769907</v>
+        <v>1.656496136101212</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.441312250408872</v>
@@ -11266,7 +11230,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.754704437443054</v>
+        <v>1.66186281030195</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.002526785458324</v>
@@ -11355,7 +11319,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.771210393378323</v>
+        <v>1.677189643306688</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.766074606594959</v>
@@ -11444,7 +11408,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.766006093153854</v>
+        <v>1.673315771607464</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.6748970098201</v>
@@ -11533,7 +11497,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.773581927763672</v>
+        <v>1.682364744839084</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.855288135667043</v>
@@ -11622,7 +11586,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.77672706991717</v>
+        <v>1.689802291453475</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.996966033419723</v>
@@ -11711,7 +11675,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.773479556792055</v>
+        <v>1.682717547136246</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.601295146889744</v>
@@ -11800,7 +11764,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.755858967293512</v>
+        <v>1.684030862612795</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.827046402555906</v>
@@ -11889,7 +11853,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.752271591211193</v>
+        <v>1.682018384399022</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.376520304894163</v>
@@ -11978,7 +11942,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.748284644407952</v>
+        <v>1.670478577599093</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.298854128281426</v>
@@ -12067,7 +12031,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.742956961907353</v>
+        <v>1.665446325515878</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.208729095392652</v>
@@ -12156,7 +12120,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.742209244197241</v>
+        <v>1.652138974875266</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.057259801728934</v>
@@ -12245,7 +12209,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.743759340366413</v>
+        <v>1.657530535848275</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.097383398786079</v>
@@ -12334,7 +12298,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.745129422573331</v>
+        <v>1.658079290731007</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.352762221579006</v>
@@ -12423,7 +12387,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.738898578783816</v>
+        <v>1.646624363241428</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.650095579216774</v>
@@ -12512,7 +12476,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.739002646039216</v>
+        <v>1.651946071278656</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.473779376872702</v>
@@ -12601,7 +12565,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.744091993814046</v>
+        <v>1.6547301466706</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.401352175155473</v>
@@ -12690,7 +12654,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.741802987980299</v>
+        <v>1.642183415131594</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.141774345673359</v>
@@ -12779,7 +12743,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.745538263718339</v>
+        <v>1.643079114453185</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.539068178278436</v>
@@ -12868,7 +12832,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.73978351696931</v>
+        <v>1.637341122649323</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.298951475884885</v>
@@ -12957,7 +12921,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.737382948923943</v>
+        <v>1.636913240475431</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.365151569353408</v>
@@ -13046,7 +13010,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.737808789216353</v>
+        <v>1.634349815730912</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.201177335201392</v>
@@ -13135,7 +13099,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.751652046596947</v>
+        <v>1.638424154957826</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.322620131447342</v>
@@ -13224,7 +13188,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.76021520313891</v>
+        <v>1.642250717241531</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.030365787005076</v>
@@ -13510,7 +13474,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.752543652463154</v>
+        <v>1.676440884090732</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.941645557882909</v>
@@ -13599,7 +13563,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.742555055465965</v>
+        <v>1.66398430543127</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.847956233047657</v>
@@ -13688,7 +13652,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.731709224132398</v>
+        <v>1.651760680877679</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.555098651454257</v>
@@ -13777,7 +13741,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.732265944086491</v>
+        <v>1.637976363694732</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.953598191001281</v>
@@ -13866,7 +13830,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.720755571399236</v>
+        <v>1.624278011788911</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.305769350389161</v>
@@ -13955,7 +13919,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.715770099584102</v>
+        <v>1.608973694993354</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.816582534405189</v>
@@ -14044,7 +14008,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.70780885356526</v>
+        <v>1.585029779163178</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.84293337624323</v>
@@ -14133,7 +14097,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.700197526956307</v>
+        <v>1.563847795975515</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.803528612674687</v>
@@ -14222,7 +14186,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.706616821541992</v>
+        <v>1.560452354134324</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.82350223643824</v>
@@ -14311,7 +14275,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.704925620280938</v>
+        <v>1.564504320366405</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.658106734530046</v>
@@ -14400,7 +14364,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.704829443300321</v>
+        <v>1.556855281869425</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.07371101166565</v>
@@ -14489,7 +14453,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.703358577135921</v>
+        <v>1.554369938017261</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.932181541433901</v>
@@ -14578,7 +14542,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.702267817796419</v>
+        <v>1.556460009995063</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.948725976286861</v>
@@ -14667,7 +14631,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.693416742379233</v>
+        <v>1.546191208895653</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.610574936150139</v>
@@ -14756,7 +14720,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.68682186154313</v>
+        <v>1.538113008885573</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.698603798321938</v>
@@ -14845,7 +14809,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.689466454547667</v>
+        <v>1.534400265011023</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.334670783009483</v>
@@ -14934,7 +14898,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.694527393947994</v>
+        <v>1.544891339474542</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.020235132640107</v>
@@ -15023,7 +14987,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.691434727765933</v>
+        <v>1.547963714714941</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.979939262479216</v>
@@ -15112,7 +15076,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.690706456735527</v>
+        <v>1.553756198844754</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.255898310902447</v>
@@ -15201,7 +15165,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.685387585751145</v>
+        <v>1.54953285147828</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.650846731257435</v>
@@ -15290,7 +15254,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.68420579461044</v>
+        <v>1.552951125293836</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.810005504869328</v>
@@ -15379,7 +15343,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.685375471562626</v>
+        <v>1.558266432202902</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.677221137112134</v>
@@ -15468,7 +15432,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.682839646593951</v>
+        <v>1.555479962921215</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.876375859733354</v>
@@ -15557,7 +15521,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.67261430992524</v>
+        <v>1.554852560633134</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.877889593804736</v>
@@ -15646,7 +15610,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.671687674420501</v>
+        <v>1.547732369718571</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.320063484541291</v>
@@ -15735,7 +15699,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.658367056024538</v>
+        <v>1.53973631615759</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.266698891318736</v>
@@ -15824,7 +15788,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.666446837903937</v>
+        <v>1.551229871343878</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.381982764381122</v>
@@ -15913,7 +15877,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.669834141711027</v>
+        <v>1.549892235984387</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.16116628068677</v>
@@ -16002,7 +15966,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.664444266972712</v>
+        <v>1.545009432307798</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.244225341661104</v>
@@ -16091,7 +16055,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.667230837932701</v>
+        <v>1.556800433940695</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.594005414116971</v>
@@ -16180,7 +16144,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.673930456609925</v>
+        <v>1.56968509682576</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.646233648845377</v>
@@ -16269,7 +16233,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.67582991680664</v>
+        <v>1.565366397218037</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.851303072786992</v>
@@ -16358,7 +16322,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.679600772331197</v>
+        <v>1.565488974004338</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.255317150734461</v>
@@ -16447,7 +16411,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.675147078986644</v>
+        <v>1.566291151975353</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.376102337741325</v>
@@ -16536,7 +16500,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.685395150017622</v>
+        <v>1.563333570662965</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.504913842442595</v>
@@ -16625,7 +16589,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.688432031890317</v>
+        <v>1.567646770111946</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.258210102644618</v>
@@ -16714,7 +16678,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.68804900691442</v>
+        <v>1.569917745224323</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.366553723530945</v>
@@ -16803,7 +16767,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.692847376354397</v>
+        <v>1.581164159626583</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.595652934914187</v>
@@ -16892,7 +16856,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.698407894703147</v>
+        <v>1.57761129399704</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.54914275091163</v>
@@ -16981,7 +16945,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.709930641192862</v>
+        <v>1.585841547134162</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.373505689781893</v>
@@ -17070,7 +17034,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.71389891255891</v>
+        <v>1.585594427072659</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.505192757904293</v>
@@ -17159,7 +17123,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.713162917811202</v>
+        <v>1.590075908909164</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.32653392047891</v>
@@ -17248,7 +17212,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.710983764413001</v>
+        <v>1.591912039846687</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.31448609165543</v>
@@ -17337,7 +17301,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.721737806229464</v>
+        <v>1.580917148529707</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.57870101694652</v>
@@ -17426,7 +17390,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.721016861500374</v>
+        <v>1.575371217808337</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.820203579928486</v>
@@ -17515,7 +17479,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.717415930207683</v>
+        <v>1.575486783278705</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.444428317668583</v>
@@ -17604,7 +17568,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.720299614375566</v>
+        <v>1.574785258706446</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.63604634873876</v>
@@ -17693,7 +17657,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.718927113945947</v>
+        <v>1.577481684860386</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.600953427411804</v>
@@ -17782,7 +17746,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.722639783859871</v>
+        <v>1.585169396924998</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.011079729668729</v>
@@ -18068,7 +18032,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.831676109988702</v>
+        <v>1.726965623411987</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.655199019008992</v>
@@ -18157,7 +18121,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.839242420595139</v>
+        <v>1.731861450832106</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.544079901431402</v>
@@ -18246,7 +18210,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.834401992970047</v>
+        <v>1.724079696771271</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.856896646652539</v>
@@ -18335,7 +18299,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.812866846684964</v>
+        <v>1.701164226840497</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.75193317852698</v>
@@ -18424,7 +18388,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.799649238551718</v>
+        <v>1.684826716574211</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.507826041418986</v>
@@ -18513,7 +18477,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.786676841049341</v>
+        <v>1.659882411709315</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.978716783432868</v>
@@ -18602,7 +18566,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.778625382216501</v>
+        <v>1.63545759866795</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.993458915383519</v>
@@ -18691,7 +18655,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.769279467624949</v>
+        <v>1.60815255502703</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.28022440807492</v>
@@ -18780,7 +18744,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.768300191285051</v>
+        <v>1.600966386037131</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.149676205014343</v>
@@ -18869,7 +18833,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.764038449209893</v>
+        <v>1.599317122137664</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.242543035215188</v>
@@ -18958,7 +18922,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.759983410744072</v>
+        <v>1.592821934234145</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.912594972434182</v>
@@ -19047,7 +19011,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.756762319812213</v>
+        <v>1.578531000005753</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.407988796591842</v>
@@ -19136,7 +19100,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.760107088805906</v>
+        <v>1.587892455565874</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.657143385799172</v>
@@ -19225,7 +19189,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.756752938348718</v>
+        <v>1.592381332001268</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.209358979021303</v>
@@ -19314,7 +19278,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.761926936751065</v>
+        <v>1.594345371817108</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.597846199318085</v>
@@ -19403,7 +19367,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.767098851623438</v>
+        <v>1.598771009599523</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.504955932580252</v>
@@ -19492,7 +19456,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.766461539732616</v>
+        <v>1.595740443791639</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.565374155149376</v>
@@ -19581,7 +19545,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.760634658195002</v>
+        <v>1.591318784526752</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.971149670437041</v>
@@ -19670,7 +19634,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.766387864331992</v>
+        <v>1.594083232575916</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.555081164101069</v>
@@ -19759,7 +19723,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.771450314971862</v>
+        <v>1.597348892284522</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.500831445104667</v>
@@ -19848,7 +19812,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.779383633899908</v>
+        <v>1.60990786422521</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.550566282357911</v>
@@ -19937,7 +19901,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.780174971688643</v>
+        <v>1.619280031130972</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.287202033023343</v>
@@ -20026,7 +19990,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.776922965729601</v>
+        <v>1.631399219959499</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.068557243543812</v>
@@ -20115,7 +20079,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.776014740562805</v>
+        <v>1.631198105915483</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.730921469331804</v>
@@ -20204,7 +20168,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.768290566690051</v>
+        <v>1.631388544920325</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.235467167268979</v>
@@ -20293,7 +20257,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.769970334984992</v>
+        <v>1.643183300619731</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.074290954213625</v>
@@ -20382,7 +20346,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.776357968215616</v>
+        <v>1.657946599983695</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.403045254163777</v>
@@ -20471,7 +20435,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.772814023867699</v>
+        <v>1.660840248367575</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.197523178216858</v>
@@ -20560,7 +20524,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.759812777714728</v>
+        <v>1.646503622438291</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.433371098650481</v>
@@ -20649,7 +20613,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.752006650925175</v>
+        <v>1.636310635523938</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.554076888728737</v>
@@ -20738,7 +20702,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.748317282743868</v>
+        <v>1.632402709397938</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.580535251579067</v>
@@ -20827,7 +20791,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.742498999007942</v>
+        <v>1.625798055219071</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.739835070144939</v>
@@ -20916,7 +20880,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.74406058250137</v>
+        <v>1.630432588546056</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.670179097353494</v>
@@ -21005,7 +20969,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.743216759526822</v>
+        <v>1.629574525106692</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.036935688479222</v>
@@ -21094,7 +21058,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.74832686248112</v>
+        <v>1.630642050003953</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.096167279225952</v>
@@ -21183,7 +21147,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.743955079904822</v>
+        <v>1.625328092475033</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.744231602591385</v>
@@ -21272,7 +21236,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.746933722336385</v>
+        <v>1.625976032871097</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.96446763152666</v>
@@ -21361,7 +21325,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.753937107567106</v>
+        <v>1.633459312756497</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.126063819632161</v>
@@ -21450,7 +21414,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.751477785660507</v>
+        <v>1.634506128393405</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.947486760440543</v>
@@ -21539,7 +21503,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.753581111299914</v>
+        <v>1.62832798974663</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.61619819440826</v>
@@ -21628,7 +21592,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.745187662013913</v>
+        <v>1.6134300969069</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.705613380603608</v>
@@ -21717,7 +21681,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.746235797843011</v>
+        <v>1.608692574310974</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.988638972782242</v>
@@ -21806,7 +21770,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.735370747960019</v>
+        <v>1.58869186605503</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.719563460143134</v>
@@ -21895,7 +21859,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.749633447964144</v>
+        <v>1.601806121692416</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.800467034478677</v>
@@ -21984,7 +21948,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.74656165491372</v>
+        <v>1.592511633358902</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.266525177064204</v>
@@ -22073,7 +22037,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.749584386484635</v>
+        <v>1.596683345316733</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.804722437976936</v>
@@ -22162,7 +22126,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.744741996768953</v>
+        <v>1.586806811044551</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.466959697200796</v>
@@ -22251,7 +22215,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.741931281614262</v>
+        <v>1.581207710350097</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.67485171493801</v>
@@ -22340,7 +22304,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.743064951374457</v>
+        <v>1.582706053226842</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.617635804455267</v>
@@ -22626,7 +22590,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.672158865859048</v>
+        <v>1.636686846745018</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.98254275942454</v>
@@ -22715,7 +22679,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.681140334217013</v>
+        <v>1.641506201572</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.068158448100715</v>
@@ -22804,7 +22768,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.695563544851207</v>
+        <v>1.649663598174858</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.158004952553031</v>
@@ -22893,7 +22857,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.675846245732653</v>
+        <v>1.618884678581781</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.308679071216194</v>
@@ -22982,7 +22946,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.663878526247682</v>
+        <v>1.606999695837605</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.157847603174736</v>
@@ -23071,7 +23035,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.680771646450319</v>
+        <v>1.613997143787855</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.693934808917827</v>
@@ -23160,7 +23124,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.684960876018582</v>
+        <v>1.614962399869005</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.145700887574284</v>
@@ -23249,7 +23213,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.671655326746099</v>
+        <v>1.600988873754569</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.092975971789051</v>
@@ -23338,7 +23302,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.677423643709139</v>
+        <v>1.597932271114979</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.220896038691848</v>
@@ -23427,7 +23391,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.671921001145104</v>
+        <v>1.597512001957679</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.94041501124059</v>
@@ -23516,7 +23480,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.675312618043608</v>
+        <v>1.599790440024784</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.139962917343691</v>
@@ -23605,7 +23569,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.687444971230443</v>
+        <v>1.602178717346646</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.869463418263839</v>
@@ -23694,7 +23658,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.689361143430549</v>
+        <v>1.60644196872686</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.901945040739551</v>
@@ -23783,7 +23747,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.702793877761291</v>
+        <v>1.61551029265507</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.165495054164499</v>
@@ -23872,7 +23836,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.701169053569335</v>
+        <v>1.607447797105699</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.037145357387545</v>
@@ -23961,7 +23925,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.720398577631939</v>
+        <v>1.6210036648836</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.173595226372045</v>
@@ -24050,7 +24014,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.721153295463193</v>
+        <v>1.619663455004347</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.215237739270846</v>
@@ -24139,7 +24103,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.718097245292396</v>
+        <v>1.617780756740864</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.17801702843313</v>
@@ -24228,7 +24192,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.723260953549845</v>
+        <v>1.628442931065593</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.110207149553673</v>
@@ -24317,7 +24281,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.738296941176706</v>
+        <v>1.6351968350462</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.236881570907012</v>
@@ -24406,7 +24370,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.727264312973732</v>
+        <v>1.631975432800259</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.328938136710211</v>
@@ -24495,7 +24459,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.720197529829742</v>
+        <v>1.626065925809017</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.298096015208157</v>
@@ -24584,7 +24548,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.717143760553507</v>
+        <v>1.631561294681248</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.539361226648386</v>
@@ -24673,7 +24637,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.708341267585069</v>
+        <v>1.631398230537344</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.196754201948365</v>
@@ -24762,7 +24726,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.705437041802312</v>
+        <v>1.62499310616175</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.149490476806518</v>
@@ -24851,7 +24815,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.697454717019977</v>
+        <v>1.630252579531794</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.122809574262123</v>
@@ -24940,7 +24904,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.699641702870102</v>
+        <v>1.631494291999545</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.502097341110055</v>
@@ -25029,7 +24993,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.699258879663425</v>
+        <v>1.639763241992517</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.514624732137682</v>
@@ -25118,7 +25082,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.680859897946812</v>
+        <v>1.621380100152106</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.379856228198308</v>
@@ -25207,7 +25171,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.685547372819247</v>
+        <v>1.635582895963674</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.452059269072118</v>
@@ -25296,7 +25260,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.687349711302104</v>
+        <v>1.638784866692096</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.496798487910882</v>
@@ -25385,7 +25349,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.693896287772181</v>
+        <v>1.647460480706051</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.653902708849508</v>
@@ -25474,7 +25438,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.699536124924195</v>
+        <v>1.658365934730246</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.397268770819021</v>
@@ -25563,7 +25527,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.687241153605464</v>
+        <v>1.64505108945526</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.137585547448415</v>
@@ -25652,7 +25616,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.6919045419382</v>
+        <v>1.643565716345622</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.937062035755525</v>
@@ -25741,7 +25705,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.694364507095871</v>
+        <v>1.64141525884557</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.186228839651905</v>
@@ -25830,7 +25794,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.692788136376819</v>
+        <v>1.634886428872795</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.471733005885318</v>
@@ -25919,7 +25883,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.710458607976581</v>
+        <v>1.648959103979919</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.166651753731399</v>
@@ -26008,7 +25972,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.716979264147515</v>
+        <v>1.657021656066753</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.410186856527868</v>
@@ -26097,7 +26061,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.719971423016707</v>
+        <v>1.651377947651742</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.264396730344264</v>
@@ -26186,7 +26150,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.723184200951447</v>
+        <v>1.647303657783286</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.884784191614945</v>
@@ -26275,7 +26239,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.724112449711593</v>
+        <v>1.645676885218832</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.411163692142341</v>
@@ -26364,7 +26328,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.71934659729065</v>
+        <v>1.631187322009087</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.230974194571353</v>
@@ -26453,7 +26417,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.731299827046116</v>
+        <v>1.634354037689859</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.282442636502331</v>
@@ -26542,7 +26506,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.72721437462864</v>
+        <v>1.625469083553007</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.154479375385069</v>
@@ -26631,7 +26595,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.717088144849731</v>
+        <v>1.615923059735413</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.518007511900515</v>
@@ -26720,7 +26684,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.710991148114062</v>
+        <v>1.60764406475395</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.167058446463644</v>
@@ -26809,7 +26773,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.726107059752266</v>
+        <v>1.612363074612526</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.332491473553193</v>
@@ -26898,7 +26862,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.743220818627033</v>
+        <v>1.628263935285115</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.165540362198038</v>
@@ -27184,7 +27148,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.554037969335187</v>
+        <v>1.508111330396457</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.00064440441506</v>
@@ -27273,7 +27237,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.576362864140008</v>
+        <v>1.521969818052178</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.08098931639645</v>
@@ -27362,7 +27326,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.577803772387054</v>
+        <v>1.522215866332126</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.734482358250852</v>
@@ -27451,7 +27415,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.582541827364918</v>
+        <v>1.51283126135237</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.846385603887177</v>
@@ -27540,7 +27504,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.587621875974722</v>
+        <v>1.508440626824281</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.095696139925691</v>
@@ -27629,7 +27593,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.600947417108853</v>
+        <v>1.51497392573777</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.875588622153324</v>
@@ -27718,7 +27682,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.612353235972535</v>
+        <v>1.523446375501361</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.900410683276776</v>
@@ -27807,7 +27771,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.598390477571834</v>
+        <v>1.505643055051857</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.117604652290587</v>
@@ -27896,7 +27860,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.602208150497979</v>
+        <v>1.501881137633357</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.157082718535579</v>
@@ -27985,7 +27949,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.602746797050009</v>
+        <v>1.503416157057979</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.012692295197406</v>
@@ -28074,7 +28038,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.602828371423366</v>
+        <v>1.504827522779719</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.302757127318917</v>
@@ -28163,7 +28127,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.61017690546441</v>
+        <v>1.503286831672682</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.019764715576726</v>
@@ -28252,7 +28216,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.610820143344354</v>
+        <v>1.501059001482945</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.285644575806128</v>
@@ -28341,7 +28305,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.619165389591851</v>
+        <v>1.506289494540306</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.316608209580481</v>
@@ -28430,7 +28394,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.622814272666027</v>
+        <v>1.497666241364892</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.836494625256389</v>
@@ -28519,7 +28483,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.629511349557921</v>
+        <v>1.501914517145123</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.338038350682706</v>
@@ -28608,7 +28572,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.629141236915069</v>
+        <v>1.497784970202755</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.393093488575003</v>
@@ -28697,7 +28661,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.628711824904151</v>
+        <v>1.495389063562881</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.458470558364583</v>
@@ -28786,7 +28750,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.632080273713518</v>
+        <v>1.504813064023906</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.91973101242925</v>
@@ -28875,7 +28839,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.644063942323366</v>
+        <v>1.513704346859192</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.125544562584062</v>
@@ -28964,7 +28928,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.64246748148553</v>
+        <v>1.516948322840715</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.388369325053345</v>
@@ -29053,7 +29017,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.642468575793401</v>
+        <v>1.519471508324963</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.401018019398469</v>
@@ -29142,7 +29106,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.639324225311595</v>
+        <v>1.519579394961668</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.098383156610138</v>
@@ -29231,7 +29195,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.640510387722211</v>
+        <v>1.524518760237336</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.10491891443605</v>
@@ -29320,7 +29284,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.633537387193857</v>
+        <v>1.51645008073052</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.894854708702153</v>
@@ -29409,7 +29373,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.624645429279121</v>
+        <v>1.515854045291933</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.888268142181294</v>
@@ -29498,7 +29462,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.637674022868847</v>
+        <v>1.533598323607468</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.14368134007744</v>
@@ -29587,7 +29551,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.633807388584438</v>
+        <v>1.542399248177257</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.868676453208384</v>
@@ -29676,7 +29640,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.614672938425532</v>
+        <v>1.529426190373792</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.847482288247582</v>
@@ -29765,7 +29729,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.61794335079928</v>
+        <v>1.545667143800094</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.048385168701543</v>
@@ -29854,7 +29818,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.621969178148521</v>
+        <v>1.545011208557233</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.066051328056829</v>
@@ -29943,7 +29907,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.624219763088168</v>
+        <v>1.551920874008885</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.842880681268761</v>
@@ -30032,7 +29996,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.642226135419667</v>
+        <v>1.568366739297495</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.907024163204676</v>
@@ -30121,7 +30085,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.633215869529619</v>
+        <v>1.56261175244545</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.924215788013522</v>
@@ -30210,7 +30174,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.64542399795431</v>
+        <v>1.558353712277235</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.207556753068793</v>
@@ -30299,7 +30263,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.644924600854766</v>
+        <v>1.548419052045319</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.144337202945139</v>
@@ -30388,7 +30352,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.641560412952768</v>
+        <v>1.541962392484799</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.248436687500617</v>
@@ -30477,7 +30441,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.655372309619151</v>
+        <v>1.55729163086068</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.383113756974845</v>
@@ -30566,7 +30530,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.660572660205779</v>
+        <v>1.562837819661024</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.09531848277047</v>
@@ -30655,7 +30619,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.677889962692503</v>
+        <v>1.562926655872676</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.924153970107641</v>
@@ -30744,7 +30708,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.667660586638249</v>
+        <v>1.539714717268874</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.259987029642885</v>
@@ -30833,7 +30797,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.669260983609345</v>
+        <v>1.537613868465282</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.008429427352677</v>
@@ -30922,7 +30886,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.65988034595237</v>
+        <v>1.52373179550316</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.307925189419804</v>
@@ -31011,7 +30975,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.675370581673183</v>
+        <v>1.523764121407934</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.034046155866216</v>
@@ -31100,7 +31064,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.670341298818719</v>
+        <v>1.514305898199927</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.063442780857307</v>
@@ -31189,7 +31153,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.665530134231118</v>
+        <v>1.51333110913911</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.9653081850393</v>
@@ -31278,7 +31242,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.658300654883143</v>
+        <v>1.503086083391355</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.129317290651152</v>
@@ -31367,7 +31331,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.655271256884718</v>
+        <v>1.497275120232336</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.725556523679814</v>
@@ -31456,7 +31420,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.657592706790617</v>
+        <v>1.49835381686721</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.875067888119079</v>
